--- a/Edited_Data_Dictionary.xlsx
+++ b/Edited_Data_Dictionary.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0bfbd5c4a39b5f3/ai_ml_course/lending_club_case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D9DE4EEC-FF38-43BF-8CCB-619D416F4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A11E79-F394-4C4E-8693-4DAB3677E785}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D9DE4EEC-FF38-43BF-8CCB-619D416F4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BBB3581-A273-4BF3-B251-BC13610C4A59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9384" yWindow="6528" windowWidth="6732" windowHeight="5808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
-    <sheet name="RejectStats" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="RejectStats" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$F$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -880,6 +881,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>revol_util, term,int_rate, emp_length</t>
+  </si>
+  <si>
+    <t>emp length - edit 10 + to 10 and &lt;1 to 0.5</t>
   </si>
 </sst>
 </file>
@@ -2071,14 +2078,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,7 +2119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>229</v>
       </c>
@@ -2125,7 +2132,7 @@
       </c>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>233</v>
       </c>
@@ -2138,7 +2145,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
@@ -2169,7 +2176,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>191</v>
       </c>
@@ -2199,7 +2206,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>189</v>
       </c>
@@ -2212,7 +2219,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>108</v>
       </c>
@@ -2225,7 +2232,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>234</v>
       </c>
@@ -2238,7 +2245,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>235</v>
       </c>
@@ -2251,7 +2258,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>99</v>
       </c>
@@ -2264,7 +2271,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>165</v>
       </c>
@@ -2277,7 +2284,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -2290,7 +2297,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>236</v>
       </c>
@@ -2320,7 +2327,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2340,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="36" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="36" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>192</v>
       </c>
@@ -2363,7 +2370,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +2383,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="41" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>154</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2427,7 +2434,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2438,7 +2445,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>3</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="29" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>11</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>215</v>
       </c>
@@ -2532,7 +2539,7 @@
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2584,7 +2591,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>6</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>13</v>
       </c>
@@ -2631,7 +2638,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2644,7 +2651,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2655,7 +2662,7 @@
       <c r="D39" s="13"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2666,7 +2673,7 @@
       <c r="D40" s="13"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2679,7 +2686,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2692,7 +2699,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:13" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="35" customFormat="1" ht="16.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>2</v>
       </c>
@@ -2708,7 +2715,7 @@
       </c>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2724,7 +2731,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>221</v>
       </c>
@@ -2737,7 +2744,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>1</v>
       </c>
@@ -2756,7 +2763,7 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>237</v>
       </c>
@@ -2772,7 +2779,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -2788,7 +2795,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
@@ -2801,7 +2808,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -2814,7 +2821,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>238</v>
       </c>
@@ -2827,7 +2834,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2847,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>102</v>
       </c>
@@ -2853,7 +2860,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2873,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>211</v>
       </c>
@@ -2879,7 +2886,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>239</v>
       </c>
@@ -2892,7 +2899,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>240</v>
       </c>
@@ -2905,7 +2912,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>242</v>
       </c>
@@ -2918,7 +2925,7 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>243</v>
       </c>
@@ -2931,7 +2938,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2944,7 +2951,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>98</v>
       </c>
@@ -2957,7 +2964,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>110</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -2981,7 +2988,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>111</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>109</v>
       </c>
@@ -3005,7 +3012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>116</v>
       </c>
@@ -3017,7 +3024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>121</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>96</v>
       </c>
@@ -3041,7 +3048,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -3053,7 +3060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>103</v>
       </c>
@@ -3065,7 +3072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>115</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>114</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>113</v>
       </c>
@@ -3103,7 +3110,7 @@
       <c r="E73"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>203</v>
       </c>
@@ -3139,7 +3146,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>207</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>209</v>
       </c>
@@ -3163,7 +3170,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>205</v>
       </c>
@@ -3175,7 +3182,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>217</v>
       </c>
@@ -3187,7 +3194,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>219</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -3211,7 +3218,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -3223,7 +3230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>112</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>244</v>
       </c>
@@ -3247,7 +3254,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>123</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>97</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
         <v>18</v>
       </c>
@@ -3298,7 +3305,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>15</v>
       </c>
@@ -3313,7 +3320,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>164</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -3337,7 +3344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3349,7 +3356,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
         <v>9</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>101</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>122</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>107</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>106</v>
       </c>
@@ -3449,7 +3456,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>245</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>213</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>246</v>
       </c>
@@ -3497,7 +3504,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>231</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>95</v>
       </c>
@@ -3521,7 +3528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>158</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>16</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56" t="s">
         <v>232</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>194</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="65" t="s">
         <v>184</v>
       </c>
@@ -3663,10 +3670,14 @@
       <c r="D118" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B116">
-      <sortCondition ref="A1:A116"/>
-    </sortState>
+  <autoFilter ref="A1:F116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="inq_fi"/>
+        <filter val="inq_last_12m"/>
+        <filter val="inq_last_6mths"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
     <sortCondition ref="A2:A101"/>
@@ -3677,6 +3688,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDDBE5C-A0AD-46C4-9350-C59BAE9A878B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/Edited_Data_Dictionary.xlsx
+++ b/Edited_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0bfbd5c4a39b5f3/ai_ml_course/lending_club_case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D9DE4EEC-FF38-43BF-8CCB-619D416F4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BBB3581-A273-4BF3-B251-BC13610C4A59}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D9DE4EEC-FF38-43BF-8CCB-619D416F4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6067EFB6-3089-4483-B289-5274464F5C8A}"/>
   <bookViews>
-    <workbookView xWindow="9384" yWindow="6528" windowWidth="6732" windowHeight="5808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -2078,14 +2078,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>229</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>233</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:6" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>20</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>191</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>189</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>108</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>234</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>235</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>99</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>165</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>236</v>
       </c>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="36" customFormat="1" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="36" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>192</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="41" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>154</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>3</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>11</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>215</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:13" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>6</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="D39" s="13"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="D40" s="13"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:13" ht="16.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:13" s="35" customFormat="1" ht="16.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>2</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>221</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:13" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>237</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>118</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>238</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>102</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>211</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>239</v>
       </c>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>240</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>242</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>243</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>110</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>111</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>109</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>121</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>96</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>103</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>115</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>114</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>113</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="E73"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>203</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>207</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>209</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>205</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>217</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>219</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>112</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>244</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>123</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>97</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
         <v>18</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>164</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
         <v>9</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>101</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
         <v>5</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
         <v>19</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>122</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>107</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>245</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>213</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>246</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>231</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>95</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>158</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56" t="s">
         <v>232</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>194</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="65" t="s">
         <v>184</v>
       </c>
@@ -3670,15 +3670,6 @@
       <c r="D118" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F116" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="inq_fi"/>
-        <filter val="inq_last_12m"/>
-        <filter val="inq_last_6mths"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
